--- a/results/minimal_seats-Iceland.xlsx
+++ b/results/minimal_seats-Iceland.xlsx
@@ -19,49 +19,49 @@
     <t>Key</t>
   </si>
   <si>
-    <t>IP/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PP </t>
-  </si>
-  <si>
-    <t>SDP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PM </t>
-  </si>
-  <si>
-    <t xml:space="preserve">LG </t>
-  </si>
-  <si>
-    <t xml:space="preserve">LP </t>
-  </si>
-  <si>
-    <t>SDA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CM </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BF </t>
-  </si>
-  <si>
-    <t>P -</t>
-  </si>
-  <si>
-    <t>VID</t>
-  </si>
-  <si>
-    <t>M -</t>
-  </si>
-  <si>
-    <t>RGP</t>
+    <t>IP/SJFL - Independence Party (Sjálfstæðisflokkur, IP/SJFL)</t>
+  </si>
+  <si>
+    <t>PA - People's Alliance (Althydubandalag, PA)</t>
+  </si>
+  <si>
+    <t>PP - Progressive Party (Framsóknarflokkur, PP)</t>
+  </si>
+  <si>
+    <t>SDP - Social Democrats (Althqduflokkur, SDP)</t>
+  </si>
+  <si>
+    <t>WA - Women's Alliance (Samtok um kvennalista, WA)</t>
+  </si>
+  <si>
+    <t>PM - People's Movement (Thjodvaki - hreyfing f6lksins, PM)</t>
+  </si>
+  <si>
+    <t>LG - Left-Greens (Vinstri græn, LG)</t>
+  </si>
+  <si>
+    <t>LP - Liberal Party (Frjálslyndi flokkurinn, LP)</t>
+  </si>
+  <si>
+    <t>SDA - Social Democratic Alliance (Samfylking, SDA)</t>
+  </si>
+  <si>
+    <t>CM - Civic Movement (Borgarahreyfingin, CM)</t>
+  </si>
+  <si>
+    <t>BF - Bright Future (Bjartar framtíðar, BF)</t>
+  </si>
+  <si>
+    <t>P - Pirates (Pirata, P)</t>
+  </si>
+  <si>
+    <t>VID - Reform (Viðreisn, VIÐ)</t>
+  </si>
+  <si>
+    <t>M - The Central Party (Miðflokkurinn, M)</t>
+  </si>
+  <si>
+    <t>RGPP - Right-Green People's Party (Hægri grænna, flokks fólksins, RGPP)</t>
   </si>
   <si>
     <t>1991</t>
@@ -679,25 +679,25 @@
         <v>24</v>
       </c>
       <c r="B10">
-        <v>7.000000000000003</v>
+        <v>7</v>
       </c>
       <c r="D10">
-        <v>4.000000000000002</v>
+        <v>4</v>
       </c>
       <c r="H10">
-        <v>5.000000000000002</v>
+        <v>5</v>
       </c>
       <c r="J10">
         <v>3</v>
       </c>
       <c r="M10">
-        <v>3.000000000000001</v>
+        <v>3</v>
       </c>
       <c r="N10">
         <v>2</v>
       </c>
       <c r="O10">
-        <v>3.000000000000001</v>
+        <v>3</v>
       </c>
       <c r="P10">
         <v>2</v>
